--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll1-Notch2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H2">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I2">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J2">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N2">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q2">
-        <v>37.6828311417971</v>
+        <v>39.63826439882223</v>
       </c>
       <c r="R2">
-        <v>339.145480276174</v>
+        <v>356.7443795894</v>
       </c>
       <c r="S2">
-        <v>0.01328732644620442</v>
+        <v>0.01258106671216245</v>
       </c>
       <c r="T2">
-        <v>0.01328732644620442</v>
+        <v>0.01258106671216245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H3">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I3">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J3">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q3">
-        <v>405.6894507398553</v>
+        <v>405.4029675713967</v>
       </c>
       <c r="R3">
-        <v>3651.205056658698</v>
+        <v>3648.62670814257</v>
       </c>
       <c r="S3">
-        <v>0.1430499780517485</v>
+        <v>0.1286736908812769</v>
       </c>
       <c r="T3">
-        <v>0.1430499780517485</v>
+        <v>0.1286736908812768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H4">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I4">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J4">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N4">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O4">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P4">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q4">
-        <v>598.9913479751225</v>
+        <v>1030.822369749395</v>
       </c>
       <c r="R4">
-        <v>5390.922131776103</v>
+        <v>9277.40132774455</v>
       </c>
       <c r="S4">
-        <v>0.2112100746636711</v>
+        <v>0.3271799408702633</v>
       </c>
       <c r="T4">
-        <v>0.2112100746636711</v>
+        <v>0.3271799408702633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H5">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I5">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J5">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N5">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O5">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P5">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q5">
-        <v>212.3272778147375</v>
+        <v>269.5005735051789</v>
       </c>
       <c r="R5">
-        <v>1910.945500332638</v>
+        <v>2425.50516154661</v>
       </c>
       <c r="S5">
-        <v>0.0748686276554487</v>
+        <v>0.08553867697434908</v>
       </c>
       <c r="T5">
-        <v>0.07486862765544869</v>
+        <v>0.08553867697434908</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H6">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I6">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J6">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N6">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q6">
-        <v>887.8930909283599</v>
+        <v>734.9333922084367</v>
       </c>
       <c r="R6">
-        <v>7991.03781835524</v>
+        <v>6614.40052987593</v>
       </c>
       <c r="S6">
-        <v>0.3130795906523265</v>
+        <v>0.2332656632827982</v>
       </c>
       <c r="T6">
-        <v>0.3130795906523265</v>
+        <v>0.2332656632827982</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.470084</v>
       </c>
       <c r="I7">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J7">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N7">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q7">
-        <v>1.745155788520444</v>
+        <v>1.837012448951111</v>
       </c>
       <c r="R7">
-        <v>15.706402096684</v>
+        <v>16.53311204056</v>
       </c>
       <c r="S7">
-        <v>0.000615358611838329</v>
+        <v>0.000583062263745674</v>
       </c>
       <c r="T7">
-        <v>0.0006153586118383289</v>
+        <v>0.000583062263745674</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.470084</v>
       </c>
       <c r="I8">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J8">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>68.456577</v>
       </c>
       <c r="O8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q8">
         <v>18.78816617138533</v>
@@ -948,10 +948,10 @@
         <v>169.093495542468</v>
       </c>
       <c r="S8">
-        <v>0.006624886975857566</v>
+        <v>0.005963307818503175</v>
       </c>
       <c r="T8">
-        <v>0.006624886975857563</v>
+        <v>0.005963307818503174</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.470084</v>
       </c>
       <c r="I9">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J9">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N9">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O9">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P9">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q9">
-        <v>27.74030470956266</v>
+        <v>47.77286681460221</v>
       </c>
       <c r="R9">
-        <v>249.662742386064</v>
+        <v>429.9558013314199</v>
       </c>
       <c r="S9">
-        <v>0.00978149659207274</v>
+        <v>0.01516296521912349</v>
       </c>
       <c r="T9">
-        <v>0.009781496592072737</v>
+        <v>0.01516296521912349</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.470084</v>
       </c>
       <c r="I10">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J10">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N10">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O10">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P10">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q10">
-        <v>9.833236163834222</v>
+        <v>12.48984828264044</v>
       </c>
       <c r="R10">
-        <v>88.49912547450799</v>
+        <v>112.408634543764</v>
       </c>
       <c r="S10">
-        <v>0.003467293060859361</v>
+        <v>0.003964240535046131</v>
       </c>
       <c r="T10">
-        <v>0.00346729306085936</v>
+        <v>0.003964240535046131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.470084</v>
       </c>
       <c r="I11">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J11">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N11">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q11">
-        <v>41.11983415976</v>
+        <v>34.06006320188133</v>
       </c>
       <c r="R11">
-        <v>370.07850743784</v>
+        <v>306.540568816932</v>
       </c>
       <c r="S11">
-        <v>0.01449924656240843</v>
+        <v>0.01081056231554051</v>
       </c>
       <c r="T11">
-        <v>0.01449924656240842</v>
+        <v>0.01081056231554051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H12">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I12">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J12">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N12">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q12">
-        <v>10.43365961244389</v>
+        <v>8.668543146591112</v>
       </c>
       <c r="R12">
-        <v>93.90293651199499</v>
+        <v>78.01688831932</v>
       </c>
       <c r="S12">
-        <v>0.003679008107895288</v>
+        <v>0.002751369699924648</v>
       </c>
       <c r="T12">
-        <v>0.003679008107895287</v>
+        <v>0.002751369699924648</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H13">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I13">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J13">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>68.456577</v>
       </c>
       <c r="O13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q13">
-        <v>112.3276969676517</v>
+        <v>88.65809766012734</v>
       </c>
       <c r="R13">
-        <v>1010.949272708865</v>
+        <v>797.922878941146</v>
       </c>
       <c r="S13">
-        <v>0.03960781961799101</v>
+        <v>0.02813981535651238</v>
       </c>
       <c r="T13">
-        <v>0.03960781961799099</v>
+        <v>0.02813981535651237</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H14">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I14">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J14">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N14">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O14">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P14">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q14">
-        <v>165.8493177451133</v>
+        <v>225.4318730693322</v>
       </c>
       <c r="R14">
-        <v>1492.64385970602</v>
+        <v>2028.88685762399</v>
       </c>
       <c r="S14">
-        <v>0.05848005468239107</v>
+        <v>0.0715514030987007</v>
       </c>
       <c r="T14">
-        <v>0.05848005468239104</v>
+        <v>0.07155140309870069</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H15">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I15">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J15">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N15">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O15">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P15">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q15">
-        <v>58.78938699747945</v>
+        <v>58.93742788420645</v>
       </c>
       <c r="R15">
-        <v>529.104482977315</v>
+        <v>530.436850957858</v>
       </c>
       <c r="S15">
-        <v>0.02072969978472008</v>
+        <v>0.01870656355166996</v>
       </c>
       <c r="T15">
-        <v>0.02072969978472008</v>
+        <v>0.01870656355166996</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H16">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I16">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J16">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N16">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q16">
-        <v>245.8407184993</v>
+        <v>160.7235310842393</v>
       </c>
       <c r="R16">
-        <v>2212.5664664937</v>
+        <v>1446.511779758154</v>
       </c>
       <c r="S16">
-        <v>0.08668578717394802</v>
+        <v>0.05101316865037139</v>
       </c>
       <c r="T16">
-        <v>0.08668578717394801</v>
+        <v>0.05101316865037138</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H17">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I17">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J17">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N17">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O17">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P17">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q17">
-        <v>0.016646948318</v>
+        <v>0.2071692848622222</v>
       </c>
       <c r="R17">
-        <v>0.149822534862</v>
+        <v>1.86452356376</v>
       </c>
       <c r="S17">
-        <v>5.869873094248904E-06</v>
+        <v>6.575491215604406E-05</v>
       </c>
       <c r="T17">
-        <v>5.869873094248903E-06</v>
+        <v>6.575491215604406E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H18">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I18">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J18">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>68.456577</v>
       </c>
       <c r="O18">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P18">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q18">
-        <v>0.179219318586</v>
+        <v>2.118837546158666</v>
       </c>
       <c r="R18">
-        <v>1.612973867274</v>
+        <v>19.069537915428</v>
       </c>
       <c r="S18">
-        <v>6.319444477400606E-05</v>
+        <v>0.0006725127077271536</v>
       </c>
       <c r="T18">
-        <v>6.319444477400603E-05</v>
+        <v>0.0006725127077271535</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H19">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I19">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J19">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N19">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O19">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P19">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q19">
-        <v>0.264613292328</v>
+        <v>5.387590410424443</v>
       </c>
       <c r="R19">
-        <v>2.381519630951999</v>
+        <v>48.48831369381999</v>
       </c>
       <c r="S19">
-        <v>9.33051761407377E-05</v>
+        <v>0.001710005102377051</v>
       </c>
       <c r="T19">
-        <v>9.330517614073766E-05</v>
+        <v>0.001710005102377051</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H20">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I20">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J20">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N20">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O20">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P20">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q20">
-        <v>0.093798717166</v>
+        <v>1.408544040204889</v>
       </c>
       <c r="R20">
-        <v>0.8441884544939999</v>
+        <v>12.676896361844</v>
       </c>
       <c r="S20">
-        <v>3.3074324233495E-05</v>
+        <v>0.0004470676707369427</v>
       </c>
       <c r="T20">
-        <v>3.307432423349499E-05</v>
+        <v>0.0004470676707369427</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H21">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I21">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J21">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N21">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O21">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P21">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q21">
-        <v>0.39223991268</v>
+        <v>3.841127445774666</v>
       </c>
       <c r="R21">
-        <v>3.53015921412</v>
+        <v>34.570147011972</v>
       </c>
       <c r="S21">
-        <v>0.0001383075423764809</v>
+        <v>0.0012191623770148</v>
       </c>
       <c r="T21">
-        <v>0.0001383075423764808</v>
+        <v>0.0012191623770148</v>
       </c>
     </row>
   </sheetData>
